--- a/result/Sampling_central.xlsx
+++ b/result/Sampling_central.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S95"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,26 +473,29 @@
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Closeness</t>
         </is>
       </c>
-      <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Degree</t>
         </is>
       </c>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
       <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -528,62 +531,77 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
           <t>node1</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>value1</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>node2</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>value2</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>node3</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>value3</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>node1</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>value1</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>node2</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>value2</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>node3</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="inlineStr">
         <is>
           <t>value3</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
         </is>
       </c>
     </row>
@@ -617,53 +635,62 @@
       <c r="G4" t="n">
         <v>0.01111111111111111</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>0.01212121212121212</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>표준편차</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.15</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>신뢰구간</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.15</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>다단계추출</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O4" t="n">
+        <v>0.1181818181818182</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
         <v>0.6000000000000001</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>0.3</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
         <v>0.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1818181818181819</v>
       </c>
     </row>
     <row r="5">
@@ -696,53 +723,62 @@
       <c r="G5" t="n">
         <v>0.02287581699346405</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>0.006535947712418301</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.2</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.2</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O5" t="n">
+        <v>0.1109311740890688</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>0.2777777777777778</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1754385964912281</v>
       </c>
     </row>
     <row r="6">
@@ -775,41 +811,39 @@
       <c r="G6" t="n">
         <v>0.06932773109243696</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>0.01858660130718954</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>평균</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.4448529411764706</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>분산</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.4448529411764706</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>정규분포</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.3954248366013072</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="n">
+        <v>0.2270217346197738</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>평균</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>분산</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -817,11 +851,22 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>분산</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>분포</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>0.4705882352941176</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2810457516339869</v>
       </c>
     </row>
     <row r="7">
@@ -854,53 +899,62 @@
       <c r="G7" t="n">
         <v>0.3863636363636364</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>0.1052136269527574</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.300556586270872</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>군집</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.2945454545454546</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>할당추출</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.2887700534759359</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O7" t="n">
+        <v>0.2149606666096489</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>0.6818181818181819</v>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>0.5</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>0.2727272727272727</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1699604743083004</v>
       </c>
     </row>
     <row r="8">
@@ -933,53 +987,62 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>0.005303030303030302</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.2045454545454545</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.2045454545454545</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.2045454545454545</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O8" t="n">
+        <v>0.1287878787878788</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
         <v>0.4545454545454546</v>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>0.2727272727272727</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.2272727272727272</v>
       </c>
     </row>
     <row r="9">
@@ -1012,54 +1075,63 @@
       <c r="G9" t="n">
         <v>0.002849002849002849</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>0.001577126577126577</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>동일확률</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>복잡</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.07407407407407407</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>비용</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.07407407407407407</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O9" t="n">
+        <v>0.04872134038800706</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>0.4074074074074074</v>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.1851851851851852</v>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="S9" t="n">
         <v>0.1851851851851852</v>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.07936507936507939</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1091,53 +1163,62 @@
       <c r="G10" t="n">
         <v>0.1583333333333334</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10" t="n">
+        <v>0.05192307692307693</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>0.4468965517241379</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.3811764705882353</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>표본</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.3811764705882353</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
       <c r="O10" t="n">
+        <v>0.2676222867646506</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>0.92</v>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>0.76</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>0.16</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="11">
@@ -1170,41 +1251,39 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11" t="n">
+        <v>0.01864801864801865</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.2314814814814815</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O11" t="n">
-        <v>0.75</v>
+        <v>0.2193732193732194</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1212,11 +1291,22 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.2564102564102563</v>
       </c>
     </row>
     <row r="12">
@@ -1249,54 +1339,63 @@
       <c r="G12" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>0.07619047619047618</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0.5454545454545454</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O12" t="n">
+        <v>0.4415584415584415</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>군집추출</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.8333333333333333</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>층화추출</t>
         </is>
       </c>
       <c r="S12" t="n">
         <v>0.8333333333333333</v>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>층화추출</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1328,53 +1427,62 @@
       <c r="G13" t="n">
         <v>0.2282608695652174</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" t="n">
+        <v>0.05782608695652175</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v>0.3809523809523809</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
         <v>0.2807017543859649</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0.2675925925925926</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O13" t="n">
+        <v>0.2366393672842037</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
         <v>0.7083333333333333</v>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.1366666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -1407,41 +1515,39 @@
       <c r="G14" t="n">
         <v>0.01298701298701299</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>0.003482025221155656</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>평균</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.1420454545454545</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>모평균</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>0.1420454545454545</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>분산</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>0.1420454545454545</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O14" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.06616810396454664</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>단순무작위추출</t>
+          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1449,11 +1555,22 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>표본추출</t>
+          <t>단순무작위추출</t>
         </is>
       </c>
       <c r="S14" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
         <v>0.1818181818181818</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1106719367588933</v>
       </c>
     </row>
     <row r="15">
@@ -1486,53 +1603,62 @@
       <c r="G15" t="n">
         <v>0.2454710144927536</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15" t="n">
+        <v>0.06514492753623188</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>0.2608024691358025</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>효율성</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>0.2271505376344086</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>데이터분석</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>0.1903153153153153</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
       <c r="O15" t="n">
+        <v>0.164851036677013</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
         <v>0.4166666666666666</v>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="16">
@@ -1565,41 +1691,39 @@
       <c r="G16" t="n">
         <v>0.06363636363636363</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>0.02272727272727272</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.2077922077922078</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>0.2077922077922078</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>비례군집추출</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>0.1893939393939394</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O16" t="n">
-        <v>0.4545454545454546</v>
+        <v>0.1444805194805195</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1607,12 +1731,23 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>군집추출</t>
+          <t>비확률적표본추출</t>
         </is>
       </c>
       <c r="S16" t="n">
         <v>0.4545454545454546</v>
       </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>군집추출</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4545454545454546</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.2121212121212121</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1644,41 +1779,39 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v>0.1</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
         <v>0.1</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O17" t="n">
-        <v>0.2</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1686,11 +1819,22 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>표본추출</t>
+          <t>비확률적표본추출</t>
         </is>
       </c>
       <c r="S17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
         <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.03636363636363637</v>
       </c>
     </row>
     <row r="18">
@@ -1723,53 +1867,62 @@
       <c r="G18" t="n">
         <v>0.0291005291005291</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18" t="n">
+        <v>0.01181353767560664</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>0.25</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
         <v>0.2077922077922078</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>편의추출</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>0.1808035714285715</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
       <c r="O18" t="n">
+        <v>0.143128001240686</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>0.6071428571428571</v>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>0.1785714285714285</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.1157635467980296</v>
       </c>
     </row>
     <row r="19">
@@ -1802,53 +1955,62 @@
       <c r="G19" t="n">
         <v>0.02747252747252748</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>0.02124542124542125</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>모평균</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>모표준편차</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0.2571428571428571</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>모분산</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>0.2571428571428571</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O19" t="n">
+        <v>0.1811167800453514</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>모평균</t>
         </is>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>0.3571428571428571</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>0.2142857142857143</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.2095238095238095</v>
       </c>
     </row>
     <row r="20">
@@ -1881,53 +2043,62 @@
       <c r="G20" t="n">
         <v>0.02164502164502164</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="H20" t="n">
+        <v>0.00668172407302842</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
         <v>0.1212121212121212</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>단순집락추출</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0.1033057851239669</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>0.1033057851239669</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="n">
+        <v>0.07279103520675247</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>표본</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
         <v>0.3181818181818182</v>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>0.2272727272727273</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.09090909090909088</v>
       </c>
     </row>
     <row r="21">
@@ -1960,53 +2131,62 @@
       <c r="G21" t="n">
         <v>0.01923076923076923</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>0.006410256410256409</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>복원추출</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>비복원추출</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>할당추출</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0.1025641025641026</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O21" t="n">
+        <v>0.09157509157509157</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
         <v>0.4615384615384616</v>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>표본</t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>0.2307692307692308</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="22">
@@ -2039,53 +2219,62 @@
       <c r="G22" t="n">
         <v>0.07692307692307693</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="H22" t="n">
+        <v>0.03021978021978022</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
         <v>0.1758241758241758</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>0.1758241758241758</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O22" t="n">
+        <v>0.1677917320774464</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
         <v>0.6153846153846154</v>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
         <v>0.4615384615384616</v>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>정확성</t>
         </is>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>0.3076923076923077</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.1978021978021978</v>
       </c>
     </row>
     <row r="23">
@@ -2118,53 +2307,62 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="n">
+        <v>0.00196078431372549</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O23" t="n">
+        <v>0.06495098039215685</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
         <v>0.375</v>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
         <v>0.3125</v>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.1102941176470588</v>
       </c>
     </row>
     <row r="24">
@@ -2197,41 +2395,39 @@
       <c r="G24" t="n">
         <v>0.04166666666666666</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>0.01527777777777778</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>모평균</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0.253968253968254</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>분산</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>0.253968253968254</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>모비율</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>0.253968253968254</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O24" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.1724867724867725</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>군집추출</t>
+          <t>표본추출</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2239,12 +2435,23 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>판단추출</t>
+          <t>군집추출</t>
         </is>
       </c>
       <c r="S24" t="n">
         <v>0.4444444444444444</v>
       </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>판단추출</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.3111111111111111</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2276,53 +2483,62 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="n">
+        <v>0.006227106227106228</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>모평균</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>모분산</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>신뢰구간</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O25" t="n">
+        <v>0.07936507936507935</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>0.3571428571428571</v>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.1238095238095238</v>
       </c>
     </row>
     <row r="26">
@@ -2355,54 +2571,63 @@
       <c r="G26" t="n">
         <v>0.05</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="n">
+        <v>0.0142156862745098</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>0.25</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>0.225</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>단순집락추출</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>0.225</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O26" t="n">
+        <v>0.1428935035552683</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
         <v>0.375</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>할당추출</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>단순무작위추출</t>
         </is>
       </c>
       <c r="S26" t="n">
         <v>0.3125</v>
       </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>단순무작위추출</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.2279411764705882</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2434,53 +2659,62 @@
       <c r="G27" t="n">
         <v>0.02747252747252748</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="H27" t="n">
+        <v>0.02234432234432234</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
         <v>0.2285714285714286</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>0.1904761904761905</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>0.1785714285714286</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O27" t="n">
+        <v>0.1554497354497354</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>0.2142857142857143</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.180952380952381</v>
       </c>
     </row>
     <row r="28">
@@ -2513,53 +2747,62 @@
       <c r="G28" t="n">
         <v>0.01818181818181818</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="n">
+        <v>0.01287878787878788</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>복원추출</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>0.1363636363636364</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>비복원추출</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>0.1363636363636364</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>추출간격</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>0.1363636363636364</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O28" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
         <v>0.5454545454545454</v>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
         <v>0.1818181818181818</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="29">
@@ -2592,52 +2835,61 @@
       <c r="G29" t="n">
         <v>0.02777777777777778</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O29" t="n">
+        <v>0.1518518518518518</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>전수조사</t>
         </is>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="V29" t="n">
         <v>0.2222222222222222</v>
       </c>
     </row>
@@ -2671,53 +2923,62 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="H30" t="n">
+        <v>0.0238095238095238</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
         <v>0.25</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
         <v>0.25</v>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>0.25</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O30" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
         <v>1.125</v>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
         <v>0.625</v>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
         <v>0.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -2750,54 +3011,63 @@
       <c r="G31" t="n">
         <v>0.1339031339031339</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="n">
+        <v>0.02706552706552707</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>표본</t>
         </is>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>0.164983164983165</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>0.1481481481481481</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="n">
+        <v>0.09185360953185813</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>표본</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>전체조사X</t>
         </is>
       </c>
       <c r="S31" t="n">
         <v>0.1851851851851852</v>
       </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>전체조사X</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0925925925925926</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2829,53 +3099,62 @@
       <c r="G32" t="n">
         <v>0.4327485380116959</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="H32" t="n">
+        <v>0.110672514619883</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
         <v>0.4159178433889602</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
         <v>0.4060150375939849</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>0.3965728274173806</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O32" t="n">
+        <v>0.2899549191431883</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
         <v>0.5263157894736842</v>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
         <v>0.3684210526315789</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
@@ -2908,54 +3187,63 @@
       <c r="G33" t="n">
         <v>0.03333333333333333</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="n">
+        <v>0.01414141414141414</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>전형추출</t>
         </is>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>0.225</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>할당추출</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>0.225</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>0.225</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="n">
+        <v>0.1606060606060606</v>
+      </c>
+      <c r="P33" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>0.5</v>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.4</v>
-      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>확률적표본추출</t>
+          <t>비확률적표본추출</t>
         </is>
       </c>
       <c r="S33" t="n">
         <v>0.4</v>
       </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.2545454545454546</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2987,53 +3275,62 @@
       <c r="G34" t="n">
         <v>0.1264822134387352</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="n">
+        <v>0.03442028985507246</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>0.2938530734632684</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>0.2938530734632684</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>0.2505175983436853</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O34" t="n">
+        <v>0.1861916978399461</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
         <v>0.5217391304347826</v>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
         <v>0.3913043478260869</v>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
         <v>0.3478260869565217</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -3066,53 +3363,62 @@
       <c r="G35" t="n">
         <v>0.0196078431372549</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="n">
+        <v>0.004643962848297214</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>0.154320987654321</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>0.154320987654321</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>단순집락추출</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>0.154320987654321</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O35" t="n">
+        <v>0.08463287849252761</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
         <v>0.3888888888888888</v>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>조사</t>
         </is>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
         <v>0.2777777777777778</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.1345029239766082</v>
       </c>
     </row>
     <row r="36">
@@ -3145,53 +3451,62 @@
       <c r="G36" t="n">
         <v>0.04945054945054946</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="n">
+        <v>0.01575091575091575</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>표본</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>0.3673469387755102</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>0.2571428571428571</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>표준편차</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>0.25</v>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="n">
+        <v>0.1560811675097389</v>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>표본</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>0.6428571428571428</v>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
         <v>0.3571428571428571</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="37">
@@ -3224,53 +3539,62 @@
       <c r="G37" t="n">
         <v>0.01515151515151515</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="H37" t="n">
+        <v>0.006993006993006993</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
         <v>0.1875</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>모평균</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O37" t="n">
+        <v>0.1349358974358974</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
         <v>0.75</v>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>전수조사</t>
         </is>
       </c>
-      <c r="Q37" t="n">
+      <c r="S37" t="n">
         <v>0.5833333333333333</v>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="38">
@@ -3303,53 +3627,62 @@
       <c r="G38" t="n">
         <v>0.1483516483516484</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="H38" t="n">
+        <v>0.06483516483516484</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
         <v>0.4571428571428571</v>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
         <v>0.3516483516483517</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>추정치</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>0.2689075630252101</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O38" t="n">
+        <v>0.2506390178449002</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S38" t="n">
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="39">
@@ -3382,53 +3715,62 @@
       <c r="G39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="H39" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
         <v>0.2962962962962963</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>전수조사</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O39" t="n">
+        <v>0.1681481481481482</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>할당추출</t>
         </is>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>전수조사</t>
         </is>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="40">
@@ -3461,53 +3803,62 @@
       <c r="G40" t="n">
         <v>0.01666666666666667</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="n">
+        <v>0.004901960784313726</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>집락</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>복원추출</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>0.09375</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>비복원추출</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>0.09375</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O40" t="n">
+        <v>0.07703081232492996</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
         <v>0.375</v>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
         <v>0.3125</v>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="S40" t="n">
+      <c r="U40" t="n">
         <v>0.1875</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.125</v>
       </c>
     </row>
     <row r="41">
@@ -3540,54 +3891,63 @@
       <c r="G41" t="n">
         <v>0.07692307692307693</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="H41" t="n">
+        <v>0.03159340659340659</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>전수조사</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>0.1384615384615385</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O41" t="n">
+        <v>0.1298883656026513</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.3076923076923077</v>
-      </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>층화추출</t>
+          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="S41" t="n">
         <v>0.3076923076923077</v>
       </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>층화추출</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.1648351648351649</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3619,52 +3979,61 @@
       <c r="G42" t="n">
         <v>0.07142857142857142</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H42" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>0.5</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>이단집락추출</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>0.4666666666666667</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>0.3809523809523809</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O42" t="n">
+        <v>0.3037698412698413</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
         <v>0.7142857142857142</v>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S42" t="n">
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="V42" t="n">
         <v>0.4285714285714285</v>
       </c>
     </row>
@@ -3698,54 +4067,63 @@
       <c r="G43" t="n">
         <v>0.07142857142857144</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="n">
+        <v>0.02678571428571429</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>할당추출</t>
         </is>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>0.2</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>전형추출</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>0.1846153846153846</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>0.1515151515151515</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O43" t="n">
+        <v>0.1336656154303213</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
         <v>0.4</v>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>할당추출</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>단순무작위추출</t>
         </is>
       </c>
       <c r="S43" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>단순무작위추출</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3777,53 +4155,62 @@
       <c r="G44" t="n">
         <v>0.02272727272727273</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="n">
+        <v>0.01107226107226107</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>0.1875</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>단순집락추출</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>0.1875</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>이단집락추출</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>0.1875</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O44" t="n">
+        <v>0.1287393162393163</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
         <v>0.5</v>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>단순집락추출</t>
         </is>
       </c>
-      <c r="Q44" t="n">
+      <c r="S44" t="n">
         <v>0.4166666666666666</v>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S44" t="n">
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="45">
@@ -3856,54 +4243,63 @@
       <c r="G45" t="n">
         <v>0.09523809523809523</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="H45" t="n">
+        <v>0.03869047619047619</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
         <v>0.875</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
         <v>0.6363636363636364</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>단순집락추출</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>0.3214285714285714</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O45" t="n">
+        <v>0.322849025974026</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>단순집락추출</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.7142857142857142</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>이단집락추출</t>
         </is>
       </c>
       <c r="S45" t="n">
         <v>0.7142857142857142</v>
       </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>이단집락추출</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.5357142857142857</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3935,52 +4331,61 @@
       <c r="G46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="H46" t="n">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>0.2</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O46" t="n">
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
         <v>0.7777777777777777</v>
       </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="V46" t="n">
         <v>0.2222222222222222</v>
       </c>
     </row>
@@ -4014,54 +4419,63 @@
       <c r="G47" t="n">
         <v>0.025</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="H47" t="n">
+        <v>0.01127450980392157</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
         <v>0.3601190476190476</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>전수조사</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>0.3151041666666666</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>조사</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>0.2439516129032258</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O47" t="n">
+        <v>0.1097063623836631</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
         <v>0.375</v>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>전수조사</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>부분집단</t>
         </is>
       </c>
       <c r="S47" t="n">
         <v>0.25</v>
       </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>부분집단</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.1617647058823529</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -4093,54 +4507,63 @@
       <c r="G48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" t="n">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>0.375</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>0.375</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>0.375</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O48" t="n">
+        <v>0.2619047619047619</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>체계적추출</t>
         </is>
       </c>
       <c r="S48" t="n">
         <v>0.5</v>
       </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>체계적추출</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.4761904761904762</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -4172,41 +4595,39 @@
       <c r="G49" t="n">
         <v>0.06458333333333333</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H49" t="n">
+        <v>0.02990196078431372</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>0.3616071428571429</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>0.3375</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>0.2977941176470588</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O49" t="n">
-        <v>0.4375</v>
+        <v>0.1952740535879546</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>층화추출</t>
+          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4214,12 +4635,23 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>군집추출</t>
+          <t>층화추출</t>
         </is>
       </c>
       <c r="S49" t="n">
         <v>0.4375</v>
       </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>군집추출</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.2426470588235294</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4251,53 +4683,62 @@
       <c r="G50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="n">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O50" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S50" t="n">
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="51">
@@ -4330,53 +4771,62 @@
       <c r="G51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="H51" t="n">
+        <v>0.01944444444444444</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>0.2</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O51" t="n">
+        <v>0.1844444444444444</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S51" t="n">
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
         <v>0.2222222222222222</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.2444444444444445</v>
       </c>
     </row>
     <row r="52">
@@ -4409,53 +4859,62 @@
       <c r="G52" t="n">
         <v>0.2271241830065359</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="H52" t="n">
+        <v>0.1104231166150671</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
         <v>0.5142857142857142</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>확률</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>0.4</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O52" t="n">
+        <v>0.3310516655519952</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S52" t="n">
         <v>0.5</v>
       </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S52" t="n">
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
         <v>0.4444444444444444</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.239766081871345</v>
       </c>
     </row>
     <row r="53">
@@ -4488,53 +4947,62 @@
       <c r="G53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="n">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O53" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S53" t="n">
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="54">
@@ -4567,54 +5035,63 @@
       <c r="G54" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" t="n">
+        <v>0.006331699346405229</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>무작위성</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>층</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O54" t="n">
+        <v>0.07625272331154684</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.2352941176470588</v>
-      </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>군집추출</t>
+          <t>비확률적표본추출</t>
         </is>
       </c>
       <c r="S54" t="n">
         <v>0.2352941176470588</v>
       </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>군집추출</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -4646,54 +5123,63 @@
       <c r="G55" t="n">
         <v>0.008658008658008658</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" t="n">
+        <v>0.003387916431394692</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>비율검정</t>
         </is>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>0.1454545454545455</v>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>카이제곱검정</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>0.1038961038961039</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>표본비율</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="O55" t="n">
+        <v>0.06538678712591754</v>
+      </c>
+      <c r="P55" t="inlineStr">
         <is>
           <t>검정</t>
         </is>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.2272727272727273</v>
-      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>확률적표본추출</t>
+          <t>비확률적표본추출</t>
         </is>
       </c>
       <c r="S55" t="n">
         <v>0.2272727272727273</v>
       </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.09881422924901184</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -4725,53 +5211,62 @@
       <c r="G56" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="H56" t="n">
+        <v>0.05158730158730159</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
         <v>0.5</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>추출</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>0.4210526315789473</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O56" t="n">
+        <v>0.2231968810916179</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
         <v>0.75</v>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q56" t="n">
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S56" t="n">
         <v>0.625</v>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>추출</t>
         </is>
       </c>
-      <c r="S56" t="n">
+      <c r="U56" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="57">
@@ -4804,53 +5299,62 @@
       <c r="G57" t="n">
         <v>0.01282051282051282</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="n">
+        <v>0.005952380952380952</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>0.1730769230769231</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>주기성</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>대표성</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>0.1025641025641026</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O57" t="n">
+        <v>0.09752747252747254</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
         <v>0.5384615384615385</v>
       </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="S57" t="n">
+      <c r="U57" t="n">
         <v>0.2307692307692308</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="58">
@@ -4883,54 +5387,63 @@
       <c r="G58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="H58" t="n">
+        <v>0.009324009324009324</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
         <v>0.25</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>0.1904761904761905</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>0.1904761904761905</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O58" t="n">
+        <v>0.1311355311355311</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>표본추출</t>
         </is>
       </c>
       <c r="S58" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.1794871794871795</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -4962,53 +5475,62 @@
       <c r="G59" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="H59" t="n">
+        <v>0.01491013071895425</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
         <v>0.1882352941176471</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
         <v>0.1882352941176471</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>0.1470588235294118</v>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O59" t="n">
+        <v>0.1344771241830066</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S59" t="n">
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
         <v>0.2352941176470588</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.1437908496732026</v>
       </c>
     </row>
     <row r="60">
@@ -5041,53 +5563,62 @@
       <c r="G60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="H60" t="n">
+        <v>0.008791208791208791</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>0.1285714285714286</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O60" t="n">
+        <v>0.1219047619047619</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S60" t="n">
         <v>0.5</v>
       </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S60" t="n">
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.1523809523809524</v>
       </c>
     </row>
     <row r="61">
@@ -5120,53 +5651,62 @@
       <c r="G61" t="n">
         <v>0.01904761904761905</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="n">
+        <v>0.007142857142857144</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>동질</t>
         </is>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>0.1515151515151515</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>이단집락추출</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>0.15</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>노름</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>0.1</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O61" t="n">
+        <v>0.0882891414141414</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q61" t="n">
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S61" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S61" t="n">
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
         <v>0.2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="62">
@@ -5199,54 +5739,63 @@
       <c r="G62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" t="n">
+        <v>0.002941176470588235</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O62" t="n">
+        <v>0.07352941176470587</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
         <v>0.625</v>
       </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.25</v>
-      </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>표본추출</t>
         </is>
       </c>
       <c r="S62" t="n">
         <v>0.25</v>
       </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.1176470588235294</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -5278,41 +5827,39 @@
       <c r="G63" t="n">
         <v>0.03636363636363636</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" t="n">
+        <v>0.0106060606060606</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>0.4675324675324675</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>0.4675324675324675</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>0.4675324675324675</v>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="O63" t="n">
+        <v>0.2975829725829725</v>
+      </c>
+      <c r="P63" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
-        </is>
-      </c>
-      <c r="O63" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>체계적추출</t>
         </is>
       </c>
       <c r="Q63" t="n">
@@ -5320,12 +5867,23 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>층화추출</t>
+          <t>체계적추출</t>
         </is>
       </c>
       <c r="S63" t="n">
         <v>0.8181818181818182</v>
       </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>층화추출</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.5454545454545455</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -5357,54 +5915,63 @@
       <c r="G64" t="n">
         <v>0.007575757575757576</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" t="n">
+        <v>0.006993006993006992</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>군집</t>
         </is>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>0.125</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>모집단정보필요</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O64" t="n">
+        <v>0.09935897435897437</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
         <v>0.75</v>
       </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q64" t="n">
-        <v>0.1666666666666667</v>
-      </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>표본추출</t>
         </is>
       </c>
       <c r="S64" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.1538461538461538</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -5436,53 +6003,62 @@
       <c r="G65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" t="n">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O65" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q65" t="n">
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S65" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S65" t="n">
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="66">
@@ -5515,53 +6091,62 @@
       <c r="G66" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="H66" t="n">
+        <v>0.1639194139194139</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
         <v>0.5</v>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
         <v>0.4642857142857143</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>편향개입</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>0.4482758620689655</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O66" t="n">
+        <v>0.3517150991530599</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
         <v>0.7692307692307693</v>
       </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q66" t="n">
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S66" t="n">
         <v>0.6153846153846154</v>
       </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S66" t="n">
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
         <v>0.4615384615384616</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.3076923076923078</v>
       </c>
     </row>
     <row r="67">
@@ -5594,53 +6179,62 @@
       <c r="G67" t="n">
         <v>0.07051282051282051</v>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" t="n">
+        <v>0.02152014652014652</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>난수표</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>0.1978021978021978</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>추첨</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>0.1978021978021978</v>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="O67" t="n">
+        <v>0.1411172161172161</v>
+      </c>
+      <c r="P67" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="O67" t="n">
+      <c r="Q67" t="n">
         <v>0.5384615384615385</v>
       </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S67" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S67" t="n">
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
         <v>0.2307692307692308</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.1978021978021978</v>
       </c>
     </row>
     <row r="68">
@@ -5673,53 +6267,62 @@
       <c r="G68" t="n">
         <v>0</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" t="n">
+        <v>0.006060606060606061</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>0.1212121212121212</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>0.1212121212121212</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>0.1212121212121212</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O68" t="n">
+        <v>0.1035353535353535</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
         <v>0.5454545454545454</v>
       </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S68" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S68" t="n">
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
         <v>0.2727272727272727</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="69">
@@ -5752,54 +6355,63 @@
       <c r="G69" t="n">
         <v>0.3777777777777778</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="H69" t="n">
+        <v>0.1292929292929293</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
         <v>0.7142857142857143</v>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
         <v>0.625</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>0.625</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O69" t="n">
+        <v>0.4821287408243931</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
         <v>1.2</v>
       </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q69" t="n">
-        <v>0.8</v>
-      </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="S69" t="n">
         <v>0.8</v>
       </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -5831,53 +6443,62 @@
       <c r="G70" t="n">
         <v>0</v>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" t="n">
+        <v>0.01488095238095238</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>대표성</t>
         </is>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>0.3214285714285714</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>편리성</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>0.3214285714285714</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>0.3214285714285714</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O70" t="n">
+        <v>0.2202380952380952</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
         <v>0.7142857142857142</v>
       </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q70" t="n">
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S70" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="S70" t="n">
+      <c r="U70" t="n">
         <v>0.4285714285714285</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="71">
@@ -5910,41 +6531,39 @@
       <c r="G71" t="n">
         <v>0</v>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" t="n">
+        <v>0.002751977984176127</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>0.07407407407407407</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>0.07407407407407407</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>0.07407407407407407</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O71" t="n">
-        <v>0.5</v>
+        <v>0.06822612085769979</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="Q71" t="n">
@@ -5952,11 +6571,22 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>표본추출</t>
+          <t>비확률적표본추출</t>
         </is>
       </c>
       <c r="S71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
         <v>0.1111111111111111</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="72">
@@ -5989,53 +6619,62 @@
       <c r="G72" t="n">
         <v>0.02580645161290323</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="H72" t="n">
+        <v>0.007862903225806449</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
         <v>0.1859582542694497</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>표준편차</t>
         </is>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>0.1451612903225807</v>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>0.1436950146627566</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
       <c r="O72" t="n">
+        <v>0.08197316169424303</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
         <v>0.4838709677419355</v>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>변동성</t>
         </is>
       </c>
-      <c r="Q72" t="n">
+      <c r="S72" t="n">
         <v>0.1935483870967742</v>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>통계</t>
         </is>
       </c>
-      <c r="S72" t="n">
+      <c r="U72" t="n">
         <v>0.1612903225806452</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.09072580645161289</v>
       </c>
     </row>
     <row r="73">
@@ -6068,53 +6707,62 @@
       <c r="G73" t="n">
         <v>0</v>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" t="n">
+        <v>0.003273809523809524</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>표본</t>
         </is>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>복잡</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>0.08888888888888888</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>높은대표성</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>0.08888888888888888</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O73" t="n">
+        <v>0.08194444444444444</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
         <v>0.6</v>
       </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q73" t="n">
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S73" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S73" t="n">
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.1333333333333334</v>
       </c>
     </row>
     <row r="74">
@@ -6147,53 +6795,62 @@
       <c r="G74" t="n">
         <v>0.006896551724137931</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H74" t="n">
+        <v>0.002002224694104561</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>무작위성</t>
         </is>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>0.07500000000000001</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>편리성</t>
         </is>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>0.05</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>기준</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>0.05</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O74" t="n">
+        <v>0.04560931899641577</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
         <v>0.4333333333333333</v>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>통계적분석</t>
         </is>
       </c>
-      <c r="Q74" t="n">
+      <c r="S74" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S74" t="n">
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.06666666666666668</v>
       </c>
     </row>
     <row r="75">
@@ -6226,53 +6883,62 @@
       <c r="G75" t="n">
         <v>0.01339285714285714</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="H75" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>눈덩이추출</t>
         </is>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>0.5</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>판단추출</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>0.5</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
       <c r="O75" t="n">
+        <v>0.2978395061728395</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
         <v>1.125</v>
       </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q75" t="n">
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S75" t="n">
         <v>0.625</v>
       </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S75" t="n">
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="76">
@@ -6305,41 +6971,39 @@
       <c r="G76" t="n">
         <v>0.4761904761904762</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="H76" t="n">
+        <v>0.1404761904761905</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
         <v>0.5357142857142857</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K76" t="n">
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
         <v>0.46875</v>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>0.4411764705882353</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O76" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3493811295686667</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="Q76" t="n">
@@ -6347,11 +7011,22 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S76" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
           <t>신뢰도</t>
         </is>
       </c>
-      <c r="S76" t="n">
+      <c r="U76" t="n">
         <v>0.5333333333333333</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="77">
@@ -6384,54 +7059,63 @@
       <c r="G77" t="n">
         <v>0.0375</v>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="n">
+        <v>0.01568627450980392</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>확률</t>
         </is>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>0.4375</v>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K77" t="n">
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
         <v>0.2604166666666667</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>0.25</v>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="n">
+        <v>0.2039829043505514</v>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>확률</t>
         </is>
       </c>
-      <c r="O77" t="n">
+      <c r="Q77" t="n">
         <v>0.8125</v>
       </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.4375</v>
-      </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>확률적표본추출</t>
+          <t>표본추출</t>
         </is>
       </c>
       <c r="S77" t="n">
         <v>0.4375</v>
       </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.2205882352941176</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -6463,54 +7147,63 @@
       <c r="G78" t="n">
         <v>0.4230769230769231</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="H78" t="n">
+        <v>0.1437728937728938</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
         <v>0.5909090909090909</v>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
         <v>0.5</v>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>0.4642857142857143</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O78" t="n">
+        <v>0.380953553670272</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
         <v>0.7692307692307693</v>
       </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.6153846153846154</v>
-      </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>표본추출</t>
         </is>
       </c>
       <c r="S78" t="n">
         <v>0.6153846153846154</v>
       </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -6542,53 +7235,62 @@
       <c r="G79" t="n">
         <v>0</v>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" t="n">
+        <v>0.006818181818181818</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>통계</t>
         </is>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>0.55</v>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K79" t="n">
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
         <v>0.5454545454545454</v>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O79" t="n">
+        <v>0.1140151515151515</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
         <v>0.6363636363636364</v>
       </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q79" t="n">
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S79" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>통계</t>
         </is>
       </c>
-      <c r="S79" t="n">
+      <c r="U79" t="n">
         <v>0.1818181818181818</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="80">
@@ -6621,53 +7323,62 @@
       <c r="G80" t="n">
         <v>0.1190476190476191</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="H80" t="n">
+        <v>0.03422619047619048</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
         <v>0.362962962962963</v>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K80" t="n">
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
         <v>0.3</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>0.2177777777777778</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O80" t="n">
+        <v>0.1935445311532268</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
         <v>0.6</v>
       </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q80" t="n">
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S80" t="n">
         <v>0.4666666666666667</v>
       </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S80" t="n">
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
         <v>0.4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="81">
@@ -6700,54 +7411,63 @@
       <c r="G81" t="n">
         <v>0</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O81" t="n">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>모집단</t>
+          <t>표본추출</t>
         </is>
       </c>
       <c r="S81" t="n">
         <v>0.2857142857142857</v>
       </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>모집단</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.2142857142857143</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -6779,53 +7499,62 @@
       <c r="G82" t="n">
         <v>0</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="H82" t="n">
+        <v>0.1587301587301587</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
         <v>0.7272727272727273</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="K82" t="n">
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O82" t="n">
+        <v>0.4927638962726682</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
         <v>1.25</v>
       </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q82" t="n">
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S82" t="n">
         <v>1</v>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="T82" t="inlineStr">
         <is>
           <t>모집단</t>
         </is>
       </c>
-      <c r="S82" t="n">
+      <c r="U82" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="83">
@@ -6858,53 +7587,62 @@
       <c r="G83" t="n">
         <v>0.007575757575757576</v>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H83" t="n">
+        <v>0.005244755244755244</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>표본</t>
         </is>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>전형추출</t>
         </is>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>할당추출</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O83" t="n">
+        <v>0.09615384615384617</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
         <v>0.5</v>
       </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q83" t="n">
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S83" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S83" t="n">
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.1538461538461538</v>
       </c>
     </row>
     <row r="84">
@@ -6937,53 +7675,62 @@
       <c r="G84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="H84" t="n">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
         <v>0.875</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="K84" t="n">
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>0.5</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O84" t="n">
+        <v>0.5434027777777778</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
         <v>1.714285714285714</v>
       </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q84" t="n">
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S84" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S84" t="n">
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.4999999999999999</v>
       </c>
     </row>
     <row r="85">
@@ -7016,41 +7763,39 @@
       <c r="G85" t="n">
         <v>0.03557312252964426</v>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H85" t="n">
+        <v>0.01202239789196311</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>자발적편향</t>
         </is>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>0.1956521739130435</v>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>선택편향</t>
         </is>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>0.1853546910755149</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>무응답편향</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>0.1853546910755149</v>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="O85" t="n">
+        <v>0.1171265236268097</v>
+      </c>
+      <c r="P85" t="inlineStr">
         <is>
           <t>편향</t>
-        </is>
-      </c>
-      <c r="O85" t="n">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="Q85" t="n">
@@ -7058,12 +7803,23 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>비확률적표본추출</t>
+          <t>확률적표본추출</t>
         </is>
       </c>
       <c r="S85" t="n">
         <v>0.3478260869565217</v>
       </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -7095,53 +7851,62 @@
       <c r="G86" t="n">
         <v>0.1515151515151515</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="H86" t="n">
+        <v>0.05361305361305362</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
         <v>0.3472222222222223</v>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="K86" t="n">
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
         <v>0.2604166666666667</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>0.25</v>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O86" t="n">
+        <v>0.2171474358974359</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S86" t="n">
         <v>0.5</v>
       </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S86" t="n">
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.217948717948718</v>
       </c>
     </row>
     <row r="87">
@@ -7174,53 +7939,62 @@
       <c r="G87" t="n">
         <v>0.1282051282051282</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="H87" t="n">
+        <v>0.06272893772893771</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
         <v>0.6515837104072399</v>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>통계</t>
         </is>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>0.4333333333333333</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>효율성</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>0.4260355029585799</v>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O87" t="n">
+        <v>0.2764597529261254</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
         <v>0.8461538461538463</v>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="R87" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="Q87" t="n">
+      <c r="S87" t="n">
         <v>0.6923076923076923</v>
       </c>
-      <c r="R87" t="inlineStr">
+      <c r="T87" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="S87" t="n">
+      <c r="U87" t="n">
         <v>0.3846153846153846</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.2527472527472527</v>
       </c>
     </row>
     <row r="88">
@@ -7253,53 +8027,62 @@
       <c r="G88" t="n">
         <v>0.02727272727272727</v>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H88" t="n">
+        <v>0.009848484848484848</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>포괄적</t>
         </is>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>0.1363636363636364</v>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>비포괄적</t>
         </is>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>0.1363636363636364</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>0.1212121212121212</v>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O88" t="n">
+        <v>0.1085858585858586</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
         <v>0.4545454545454546</v>
       </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q88" t="n">
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="S88" t="n">
+      <c r="U88" t="n">
         <v>0.2727272727272727</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="89">
@@ -7332,53 +8115,62 @@
       <c r="G89" t="n">
         <v>0.1052631578947368</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="H89" t="n">
+        <v>0.03696741854636591</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
         <v>0.36</v>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>무작위성</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>0.232258064516129</v>
       </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O89" t="n">
+        <v>0.1731308006902234</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
         <v>0.5</v>
       </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q89" t="n">
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S89" t="n">
         <v>0.35</v>
       </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S89" t="n">
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
         <v>0.3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.1571428571428571</v>
       </c>
     </row>
     <row r="90">
@@ -7411,54 +8203,63 @@
       <c r="G90" t="n">
         <v>0</v>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H90" t="n">
+        <v>0.006060606060606061</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>0.225</v>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
       <c r="O90" t="n">
+        <v>0.1174242424242424</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
         <v>0.5</v>
       </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q90" t="n">
-        <v>0.4</v>
-      </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>확률적표본추출</t>
+          <t>표본추출</t>
         </is>
       </c>
       <c r="S90" t="n">
         <v>0.4</v>
       </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.2181818181818182</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -7490,54 +8291,63 @@
       <c r="G91" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H91" t="n">
+        <v>0.07440476190476189</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>0.2285714285714286</v>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>0.2285714285714286</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>0.2285714285714286</v>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O91" t="n">
+        <v>0.1988095238095238</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.4285714285714285</v>
-      </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>조사</t>
+          <t>표본추출</t>
         </is>
       </c>
       <c r="S91" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>조사</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -7569,53 +8379,62 @@
       <c r="G92" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H92" t="n">
+        <v>0.02323232323232323</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>0.15</v>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>단순무작위추출</t>
         </is>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>0.15</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>0.15</v>
       </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O92" t="n">
+        <v>0.1287878787878788</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
         <v>0.5</v>
       </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q92" t="n">
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S92" t="n">
         <v>0.4</v>
       </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S92" t="n">
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
         <v>0.3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.1818181818181819</v>
       </c>
     </row>
     <row r="93">
@@ -7648,53 +8467,62 @@
       <c r="G93" t="n">
         <v>0.07575757575757576</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="H93" t="n">
+        <v>0.02097902097902098</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>눈덩이추출</t>
         </is>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>0.2083333333333333</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>편향개입</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
       <c r="O93" t="n">
+        <v>0.1329059829059829</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
         <v>0.5</v>
       </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q93" t="n">
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S93" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="S93" t="n">
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="94">
@@ -7727,53 +8555,62 @@
       <c r="G94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H94" t="n">
+        <v>0.005827505827505828</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>군집추출</t>
         </is>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>체계적추출</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O94" t="n">
+        <v>0.0982905982905983</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="Q94" t="n">
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="S94" t="n">
         <v>0.5</v>
       </c>
-      <c r="R94" t="inlineStr">
+      <c r="T94" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="S94" t="n">
+      <c r="U94" t="n">
         <v>0.08333333333333333</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.1538461538461538</v>
       </c>
     </row>
     <row r="95">
@@ -7806,60 +8643,69 @@
       <c r="G95" t="n">
         <v>0.05194805194805195</v>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H95" t="n">
+        <v>0.0223037831733484</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>층화추출</t>
         </is>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>0.2391304347826087</v>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
-      <c r="K95" t="n">
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
         <v>0.2227272727272727</v>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>0.2227272727272727</v>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>확률적표본추출</t>
-        </is>
-      </c>
       <c r="O95" t="n">
+        <v>0.1472106710145728</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>확률적표본추출</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
         <v>0.5</v>
       </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>표본추출</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>표본추출</t>
+        </is>
+      </c>
+      <c r="S95" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>비확률적표본추출</t>
-        </is>
-      </c>
-      <c r="S95" t="n">
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>비확률적표본추출</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
         <v>0.3181818181818182</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.1422924901185771</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="I1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
